--- a/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,67</t>
+          <t>5,88; 41,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,11</t>
+          <t>0,0; 40,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,65</t>
+          <t>0,0; 23,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,99</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,77</t>
+          <t>0,52; 30,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,74</t>
+          <t>0,0; 41,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 16,61</t>
+          <t>0,0; 34,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,4</t>
+          <t>0,0; 37,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,48</t>
+          <t>5,24; 28,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 13,57</t>
+          <t>3,35; 29,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,57</t>
+          <t>0,0; 24,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,23</t>
+          <t>0,0; 27,4</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>6,46%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,48%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,36%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,42%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 14,33</t>
+          <t>5,74; 14,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 18,29</t>
+          <t>4,89; 14,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 12,37</t>
+          <t>1,19; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 12,12</t>
+          <t>2,93; 9,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 25,75</t>
+          <t>4,61; 12,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,88</t>
+          <t>6,85; 15,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,16</t>
+          <t>6,11; 16,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,04</t>
+          <t>2,15; 10,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 18,22</t>
+          <t>6,12; 12,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,6</t>
+          <t>6,62; 13,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,88</t>
+          <t>4,13; 9,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,97</t>
+          <t>3,23; 8,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 41,6</t>
+          <t>3,26; 12,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,75</t>
+          <t>4,93; 14,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,37</t>
+          <t>2,63; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>4,52; 15,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 30,04</t>
+          <t>5,35; 16,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,25</t>
+          <t>4,33; 15,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,93</t>
+          <t>1,57; 8,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,09</t>
+          <t>5,22; 16,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 28,02</t>
+          <t>5,19; 12,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 29,75</t>
+          <t>5,63; 12,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,44</t>
+          <t>2,71; 8,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,4</t>
+          <t>6,12; 12,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,77</t>
+          <t>4,43; 14,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,82</t>
+          <t>7,24; 18,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,03</t>
+          <t>3,82; 12,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 15,08</t>
+          <t>3,09; 12,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 16,66</t>
+          <t>11,91; 25,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 15,35</t>
+          <t>4,52; 14,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,91</t>
+          <t>5,08; 15,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,36</t>
+          <t>5,2; 16,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,4</t>
+          <t>9,67; 18,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,68</t>
+          <t>6,92; 14,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,58</t>
+          <t>5,24; 11,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,92</t>
+          <t>5,07; 11,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 41,6</t>
+          <t>5,79; 41,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,75</t>
+          <t>0,0; 41,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,37</t>
+          <t>0,0; 23,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 30,04</t>
+          <t>3,47; 32,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,25</t>
+          <t>0,0; 36,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,93</t>
+          <t>0,0; 33,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 28,02</t>
+          <t>5,37; 27,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 29,75</t>
+          <t>3,35; 28,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,44</t>
+          <t>0,0; 21,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 22,54</t>
+          <t>8,96; 23,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 18,24</t>
+          <t>4,79; 18,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,59</t>
+          <t>2,59; 15,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,42</t>
+          <t>0,68; 6,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 21,87</t>
+          <t>7,77; 22,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 17,83</t>
+          <t>4,56; 18,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 18,1</t>
+          <t>3,73; 16,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,95</t>
+          <t>2,7; 16,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 19,45</t>
+          <t>9,1; 19,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,94</t>
+          <t>6,7; 15,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 13,44</t>
+          <t>4,72; 12,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,41</t>
+          <t>1,98; 8,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,67</t>
+          <t>5,83; 15,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,11</t>
+          <t>4,94; 14,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,65</t>
+          <t>1,21; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,99</t>
+          <t>2,72; 9,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,77</t>
+          <t>4,56; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,74</t>
+          <t>6,77; 16,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 16,61</t>
+          <t>5,46; 15,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,4</t>
+          <t>2,23; 10,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,48</t>
+          <t>5,82; 11,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 13,57</t>
+          <t>6,89; 12,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,57</t>
+          <t>4,08; 9,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,23</t>
+          <t>3,17; 8,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,77</t>
+          <t>3,23; 12,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,82</t>
+          <t>4,43; 14,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,03</t>
+          <t>2,77; 11,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 15,08</t>
+          <t>4,54; 14,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 16,66</t>
+          <t>5,03; 16,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 15,35</t>
+          <t>4,67; 15,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,91</t>
+          <t>1,58; 8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,36</t>
+          <t>5,65; 15,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,4</t>
+          <t>5,2; 12,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,68</t>
+          <t>5,46; 12,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,58</t>
+          <t>2,77; 8,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,92</t>
+          <t>6,15; 13,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 14,33</t>
+          <t>4,54; 14,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 18,29</t>
+          <t>7,74; 18,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 12,37</t>
+          <t>4,09; 12,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 12,12</t>
+          <t>3,38; 11,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 25,75</t>
+          <t>11,82; 24,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,88</t>
+          <t>4,45; 14,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,16</t>
+          <t>4,62; 14,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,04</t>
+          <t>5,1; 15,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,67; 18,22</t>
+          <t>9,52; 18,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,6</t>
+          <t>7,05; 14,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,88</t>
+          <t>5,41; 11,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,97</t>
+          <t>4,94; 11,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,91</t>
+          <t>7,98; 13,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,71</t>
+          <t>7,3; 12,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,05</t>
+          <t>3,91; 7,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,11</t>
+          <t>4,14; 8,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,09</t>
+          <t>9,68; 15,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,55</t>
+          <t>7,41; 12,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,05</t>
+          <t>6,08; 10,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,5</t>
+          <t>5,55; 10,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,06</t>
+          <t>9,36; 13,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,88</t>
+          <t>8,04; 11,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,62</t>
+          <t>5,59; 8,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,4</t>
+          <t>5,29; 8,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 41,38</t>
+          <t>5,69; 43,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,26</t>
+          <t>0,0; 34,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,35</t>
+          <t>0,0; 23,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 32,21</t>
+          <t>3,5; 32,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,34</t>
+          <t>0,0; 36,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,32</t>
+          <t>0,0; 37,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,09</t>
+          <t>0,0; 40,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 27,63</t>
+          <t>5,23; 28,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 28,44</t>
+          <t>3,37; 28,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,81</t>
+          <t>0,0; 19,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,4</t>
+          <t>0,0; 26,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 23,23</t>
+          <t>8,85; 22,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 18,0</t>
+          <t>5,03; 17,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 15,28</t>
+          <t>2,76; 15,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,23</t>
+          <t>0,72; 6,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 22,81</t>
+          <t>7,77; 21,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 18,33</t>
+          <t>5,69; 18,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 16,74</t>
+          <t>3,65; 16,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 16,81</t>
+          <t>2,43; 15,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 19,51</t>
+          <t>9,57; 19,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,96</t>
+          <t>6,26; 15,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,81</t>
+          <t>4,47; 13,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,93</t>
+          <t>2,11; 9,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,0</t>
+          <t>5,73; 13,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 14,04</t>
+          <t>4,81; 13,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,63</t>
+          <t>1,18; 6,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,85</t>
+          <t>2,8; 9,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,7</t>
+          <t>4,6; 13,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 16,21</t>
+          <t>6,88; 16,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,53</t>
+          <t>5,71; 15,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,15</t>
+          <t>2,11; 10,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 11,77</t>
+          <t>5,8; 11,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,94</t>
+          <t>6,51; 12,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,94</t>
+          <t>4,03; 9,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,42</t>
+          <t>3,28; 8,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,11</t>
+          <t>3,28; 11,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 14,65</t>
+          <t>4,74; 14,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,31</t>
+          <t>2,55; 11,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 14,45</t>
+          <t>4,66; 14,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,38</t>
+          <t>5,4; 17,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,85</t>
+          <t>4,37; 15,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,99</t>
+          <t>1,33; 8,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,82</t>
+          <t>5,47; 15,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,61</t>
+          <t>5,26; 12,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,79</t>
+          <t>5,22; 13,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,42</t>
+          <t>2,4; 8,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,49</t>
+          <t>6,14; 13,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 14,83</t>
+          <t>4,86; 14,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,59</t>
+          <t>7,8; 18,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,79</t>
+          <t>4,02; 13,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,66</t>
+          <t>3,33; 11,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,82; 24,96</t>
+          <t>11,32; 24,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 14,11</t>
+          <t>4,32; 14,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,12</t>
+          <t>5,05; 15,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 15,9</t>
+          <t>5,17; 15,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 18,03</t>
+          <t>9,48; 18,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 14,34</t>
+          <t>7,18; 14,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,76</t>
+          <t>5,3; 11,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,43</t>
+          <t>4,59; 11,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,01</t>
+          <t>7,66; 13,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,49</t>
+          <t>7,58; 12,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,89</t>
+          <t>3,8; 7,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,06</t>
+          <t>4,17; 8,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,52</t>
+          <t>9,61; 15,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,27</t>
+          <t>7,4; 12,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,89</t>
+          <t>6,03; 11,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,63</t>
+          <t>5,55; 10,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,18</t>
+          <t>9,26; 13,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,68</t>
+          <t>8,0; 11,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,94</t>
+          <t>5,51; 8,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,3</t>
+          <t>5,41; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 43,39</t>
+          <t>7,79; 19,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,12</t>
+          <t>6,0; 18,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,07</t>
+          <t>3,76; 15,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>3,21; 16,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 32,01</t>
+          <t>9,84; 23,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,66</t>
+          <t>4,9; 17,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,79</t>
+          <t>3,08; 13,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,91</t>
+          <t>0,59; 5,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 28,49</t>
+          <t>10,23; 19,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 28,26</t>
+          <t>6,73; 15,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,78</t>
+          <t>4,42; 12,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,95</t>
+          <t>2,34; 8,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 22,96</t>
+          <t>4,61; 12,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 17,89</t>
+          <t>6,85; 15,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,13</t>
+          <t>6,11; 16,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,89</t>
+          <t>2,19; 10,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 21,6</t>
+          <t>5,74; 14,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 18,28</t>
+          <t>4,89; 14,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 16,71</t>
+          <t>1,19; 6,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 15,41</t>
+          <t>2,9; 10,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,94</t>
+          <t>6,12; 12,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,54</t>
+          <t>6,62; 13,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 13,52</t>
+          <t>4,13; 9,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,01</t>
+          <t>3,21; 8,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,88</t>
+          <t>5,35; 16,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,74</t>
+          <t>4,33; 15,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,68</t>
+          <t>1,57; 8,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,76</t>
+          <t>5,08; 16,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,08</t>
+          <t>3,26; 12,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,09</t>
+          <t>4,93; 14,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 15,41</t>
+          <t>2,63; 12,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,43</t>
+          <t>4,27; 14,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,86</t>
+          <t>5,19; 12,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,79</t>
+          <t>5,63; 12,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,45</t>
+          <t>2,71; 8,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,78</t>
+          <t>5,93; 12,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 11,91</t>
+          <t>11,91; 25,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 14,69</t>
+          <t>4,52; 14,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 11,22</t>
+          <t>5,08; 15,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,19</t>
+          <t>5,04; 15,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 17,11</t>
+          <t>4,43; 14,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,2</t>
+          <t>7,24; 18,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,71</t>
+          <t>3,82; 12,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 15,97</t>
+          <t>2,99; 11,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,47</t>
+          <t>9,67; 18,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,11</t>
+          <t>6,92; 14,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,16</t>
+          <t>5,24; 11,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,56</t>
+          <t>4,86; 11,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 14,81</t>
+          <t>9,37; 15,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 18,26</t>
+          <t>7,43; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 13,18</t>
+          <t>5,96; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,98</t>
+          <t>5,62; 10,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 24,88</t>
+          <t>7,67; 12,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 14,16</t>
+          <t>7,56; 12,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 15,25</t>
+          <t>4,08; 8,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,15</t>
+          <t>4,04; 7,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,36</t>
+          <t>9,16; 13,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,64</t>
+          <t>8,1; 11,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,7</t>
+          <t>5,55; 8,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,2</t>
+          <t>5,14; 8,24</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,78%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,66; 13,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 12,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 7,88</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 8,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 15,23</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 12,56</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 11,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 10,37</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9,26; 13,0</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,0; 11,81</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 8,53</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 8,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
